--- a/CharDes_2020Winter_AssetTracker.xlsx
+++ b/CharDes_2020Winter_AssetTracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Global_GameJam_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CA7D4E-15A4-408D-8BE2-9D979621F99E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2807A57D-5B42-41B1-91A9-5385D2FD309F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1143,69 +1143,69 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1553,9 +1553,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <selection pane="topRight" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,146 +1569,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="71"/>
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="70"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="73"/>
       <c r="V2" s="2"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="70"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="73"/>
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="56"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="75"/>
       <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78" t="s">
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81" t="s">
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="62" t="s">
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="63"/>
-      <c r="U5" s="64" t="s">
+      <c r="T5" s="66"/>
+      <c r="U5" s="67" t="s">
         <v>11</v>
       </c>
       <c r="V5" s="4"/>
     </row>
     <row r="6" spans="1:22" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="57" t="s">
         <v>1</v>
       </c>
@@ -1763,7 +1763,7 @@
       <c r="T6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="65"/>
+      <c r="U6" s="68"/>
       <c r="V6" s="4"/>
     </row>
     <row r="7" spans="1:22" ht="30" thickTop="1" x14ac:dyDescent="0.25">
@@ -2323,17 +2323,17 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="64" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="64" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="64" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2341,84 +2341,86 @@
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="84" t="s">
+      <c r="B31" s="64" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="64" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="64" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="84"/>
+      <c r="B34" s="64"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="84" t="s">
+      <c r="B35" s="64" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="84" t="s">
+      <c r="B36" s="64" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="64" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="84"/>
+      <c r="B38" s="64"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="84"/>
+      <c r="B39" s="64"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="82"/>
-      <c r="I40" s="83"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="63"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="84" t="s">
+      <c r="B41" s="64" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="84" t="s">
+      <c r="B42" s="64" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="84" t="s">
+      <c r="B43" s="64" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="84" t="s">
+      <c r="B44" s="64" t="s">
         <v>67</v>
       </c>
+      <c r="H44" s="62"/>
+      <c r="I44" s="63"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="84" t="s">
+      <c r="B45" s="64" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="84" t="s">
+      <c r="B46" s="64" t="s">
         <v>69</v>
       </c>
     </row>

--- a/CharDes_2020Winter_AssetTracker.xlsx
+++ b/CharDes_2020Winter_AssetTracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Global_GameJam_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CA7D4E-15A4-408D-8BE2-9D979621F99E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F31B7CA-84DA-4DFA-B3F4-55B0DEB8316D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29160" yWindow="450" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -250,7 +250,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +300,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -960,7 +966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1143,69 +1149,81 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1553,9 +1571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <selection pane="topRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,146 +1587,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="71"/>
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="70"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="73"/>
       <c r="V2" s="2"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="70"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="73"/>
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="56"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="75"/>
       <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78" t="s">
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81" t="s">
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="62" t="s">
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="63"/>
-      <c r="U5" s="64" t="s">
+      <c r="T5" s="66"/>
+      <c r="U5" s="67" t="s">
         <v>11</v>
       </c>
       <c r="V5" s="4"/>
     </row>
     <row r="6" spans="1:22" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="57" t="s">
         <v>1</v>
       </c>
@@ -1763,7 +1781,7 @@
       <c r="T6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="65"/>
+      <c r="U6" s="68"/>
       <c r="V6" s="4"/>
     </row>
     <row r="7" spans="1:22" ht="30" thickTop="1" x14ac:dyDescent="0.25">
@@ -2200,11 +2218,11 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="14"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="7"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="86"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="14"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="88"/>
       <c r="M23" s="36"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2323,17 +2341,17 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="64" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="64" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="64" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2341,84 +2359,84 @@
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="84" t="s">
+      <c r="B31" s="64" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="64" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="64" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="84"/>
+      <c r="B34" s="64"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="84" t="s">
+      <c r="B35" s="64" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="84" t="s">
+      <c r="B36" s="64" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="64" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="84"/>
+      <c r="B38" s="64"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="84"/>
+      <c r="B39" s="64"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="82"/>
-      <c r="I40" s="83"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="63"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="84" t="s">
+      <c r="B41" s="64" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="84" t="s">
+      <c r="B42" s="64" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="84" t="s">
+      <c r="B43" s="64" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="84" t="s">
+      <c r="B44" s="64" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="84" t="s">
+      <c r="B45" s="64" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="84" t="s">
+      <c r="B46" s="64" t="s">
         <v>69</v>
       </c>
     </row>

--- a/CharDes_2020Winter_AssetTracker.xlsx
+++ b/CharDes_2020Winter_AssetTracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GameJam_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CA7D4E-15A4-408D-8BE2-9D979621F99E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC9EE11-5D8A-46C9-ADDD-BB0C6B0706E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -960,7 +960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1143,69 +1143,73 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1553,9 +1557,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E7" sqref="E7"/>
+      <selection pane="topRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,146 +1573,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="68"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="71"/>
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="70"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="73"/>
       <c r="V2" s="2"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="55"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="70"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="73"/>
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="56"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="75"/>
       <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78" t="s">
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="81" t="s">
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="62" t="s">
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="63"/>
-      <c r="U5" s="64" t="s">
+      <c r="T5" s="66"/>
+      <c r="U5" s="67" t="s">
         <v>11</v>
       </c>
       <c r="V5" s="4"/>
     </row>
     <row r="6" spans="1:22" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="57" t="s">
         <v>1</v>
       </c>
@@ -1763,11 +1767,11 @@
       <c r="T6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="65"/>
+      <c r="U6" s="68"/>
       <c r="V6" s="4"/>
     </row>
     <row r="7" spans="1:22" ht="30" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="85" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="46" t="s">
@@ -1873,7 +1877,7 @@
       <c r="V10" s="3"/>
     </row>
     <row r="11" spans="1:22" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="85" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="46" t="s">
@@ -1979,7 +1983,7 @@
       <c r="V14" s="3"/>
     </row>
     <row r="15" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="85" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="43" t="s">
@@ -2295,7 +2299,7 @@
       <c r="V26" s="3"/>
     </row>
     <row r="27" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="86" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2323,17 +2327,17 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="64" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="64" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="64" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2341,84 +2345,84 @@
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="84" t="s">
+      <c r="B31" s="64" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="64" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="64" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="84"/>
+      <c r="B34" s="64"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="84" t="s">
+      <c r="B35" s="64" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="84" t="s">
+      <c r="B36" s="64" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="64" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="84"/>
+      <c r="B38" s="64"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="84"/>
+      <c r="B39" s="64"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="82"/>
-      <c r="I40" s="83"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="63"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="84" t="s">
+      <c r="B41" s="64" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="84" t="s">
+      <c r="B42" s="64" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="84" t="s">
+      <c r="B43" s="64" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B44" s="84" t="s">
+      <c r="B44" s="64" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="84" t="s">
+      <c r="B45" s="64" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B46" s="84" t="s">
+      <c r="B46" s="64" t="s">
         <v>69</v>
       </c>
     </row>
